--- a/evaluation/results/hybrid/autoencoder/isolation_forest/split_1/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/hybrid/autoencoder/isolation_forest/split_1/test_95_5/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.905693950177936</v>
+        <v>0.4359430604982206</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.07871720116618076</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.1455525606469003</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.2967032967032967</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.673058485139022</v>
       </c>
       <c r="H2">
-        <v>0.4765917602996255</v>
+        <v>0.8039727126805778</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="J2">
-        <v>25</v>
+        <v>316</v>
       </c>
       <c r="K2">
-        <v>509</v>
+        <v>218</v>
       </c>
       <c r="L2">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.9478584729981379</v>
+        <v>0.9954337899543378</v>
       </c>
       <c r="C2">
-        <v>0.9531835205992509</v>
+        <v>0.4082397003745318</v>
       </c>
       <c r="D2">
-        <v>0.9505135387488328</v>
+        <v>0.5790172642762285</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.07871720116618076</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.1455525606469003</v>
       </c>
       <c r="E3">
         <v>28</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.905693950177936</v>
+        <v>0.4359430604982206</v>
       </c>
       <c r="C4">
-        <v>0.905693950177936</v>
+        <v>0.4359430604982206</v>
       </c>
       <c r="D4">
-        <v>0.905693950177936</v>
+        <v>0.4359430604982206</v>
       </c>
       <c r="E4">
-        <v>0.905693950177936</v>
+        <v>0.4359430604982206</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.4739292364990689</v>
+        <v>0.5370754955602594</v>
       </c>
       <c r="C5">
-        <v>0.4765917602996255</v>
+        <v>0.6862627073301231</v>
       </c>
       <c r="D5">
-        <v>0.4752567693744164</v>
+        <v>0.3622849124615644</v>
       </c>
       <c r="E5">
         <v>562</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.9006342074395118</v>
+        <v>0.9497610773456752</v>
       </c>
       <c r="C6">
-        <v>0.905693950177936</v>
+        <v>0.4359430604982206</v>
       </c>
       <c r="D6">
-        <v>0.9031569923343002</v>
+        <v>0.5574211580455858</v>
       </c>
       <c r="E6">
         <v>562</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>509</v>
+        <v>218</v>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
